--- a/Datasets/SeperateCountryFiles/Nigeria.xlsx
+++ b/Datasets/SeperateCountryFiles/Nigeria.xlsx
@@ -393,55 +393,59 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>WorldRegion</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
+          <t>Continent</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Sub-Region</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>CountryName</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>TotalConfirmedCases</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>TotalConfirmedNewCases</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>TotalDeaths</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>TotalNewDeaths</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">TransmissionClassification </t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>DaysSinceLastReportedCase</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>MasterSheet RowNo.</t>
         </is>
       </c>
-      <c r="M1" s="2" t="n"/>
       <c r="N1" s="2" t="n"/>
       <c r="O1" s="2" t="n"/>
     </row>
@@ -450,47 +454,49 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
         <v>43889</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>1</v>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
       </c>
       <c r="G2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
+          <t>Imported cases only</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
           <t>N/R</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="M2" s="2" t="n">
         <v>935</v>
       </c>
-      <c r="M2" s="2" t="n"/>
       <c r="N2" s="2" t="n"/>
       <c r="O2" s="2" t="n"/>
     </row>
@@ -499,26 +505,26 @@
         <v>40</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
         <v>43890</v>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>1</v>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>0</v>
@@ -526,18 +532,20 @@
       <c r="I3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>1</v>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
       </c>
       <c r="L3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="n">
         <v>990</v>
       </c>
-      <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
       <c r="O3" s="2" t="n"/>
     </row>
@@ -546,26 +554,26 @@
         <v>41</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
         <v>43891</v>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>1</v>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>0</v>
@@ -573,18 +581,20 @@
       <c r="I4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="n">
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="M4" s="2" t="n">
         <v>1050</v>
       </c>
-      <c r="M4" s="2" t="n"/>
       <c r="N4" s="2" t="n"/>
       <c r="O4" s="2" t="n"/>
     </row>
@@ -593,26 +603,26 @@
         <v>42</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>43892</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>1</v>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>0</v>
@@ -620,18 +630,20 @@
       <c r="I5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="n">
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="M5" s="2" t="n">
         <v>1116</v>
       </c>
-      <c r="M5" s="2" t="n"/>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="2" t="n"/>
     </row>
@@ -640,26 +652,26 @@
         <v>43</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>43893</v>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>1</v>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>0</v>
@@ -667,18 +679,20 @@
       <c r="I6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="n">
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="M6" s="2" t="n">
         <v>1189</v>
       </c>
-      <c r="M6" s="2" t="n"/>
       <c r="N6" s="2" t="n"/>
       <c r="O6" s="2" t="n"/>
     </row>
@@ -687,26 +701,26 @@
         <v>44</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
         <v>43894</v>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>1</v>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>0</v>
@@ -714,18 +728,20 @@
       <c r="I7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="n">
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="M7" s="2" t="n">
         <v>1267</v>
       </c>
-      <c r="M7" s="2" t="n"/>
       <c r="N7" s="2" t="n"/>
       <c r="O7" s="2" t="n"/>
     </row>
@@ -734,26 +750,26 @@
         <v>45</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
         <v>43895</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>1</v>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>0</v>
@@ -761,18 +777,20 @@
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="n">
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="M8" s="2" t="n">
         <v>1354</v>
       </c>
-      <c r="M8" s="2" t="n"/>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="2" t="n"/>
     </row>
@@ -781,26 +799,26 @@
         <v>46</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
         <v>43896</v>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>1</v>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>0</v>
@@ -808,18 +826,20 @@
       <c r="I9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="n">
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="M9" s="2" t="n">
         <v>1443</v>
       </c>
-      <c r="M9" s="2" t="n"/>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="2" t="n"/>
     </row>
@@ -828,26 +848,26 @@
         <v>47</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
         <v>43897</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>1</v>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>0</v>
@@ -855,18 +875,20 @@
       <c r="I10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="n">
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="M10" s="2" t="n">
         <v>1537</v>
       </c>
-      <c r="M10" s="2" t="n"/>
       <c r="N10" s="2" t="n"/>
       <c r="O10" s="2" t="n"/>
     </row>
@@ -875,26 +897,26 @@
         <v>48</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>43898</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>1</v>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>0</v>
@@ -902,18 +924,20 @@
       <c r="I11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="n">
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="M11" s="2" t="n">
         <v>1641</v>
       </c>
-      <c r="M11" s="2" t="n"/>
       <c r="N11" s="2" t="n"/>
       <c r="O11" s="2" t="n"/>
     </row>
@@ -922,45 +946,47 @@
         <v>49</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>43899</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="H12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>0</v>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
       </c>
       <c r="L12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="n">
         <v>1747</v>
       </c>
-      <c r="M12" s="2" t="n"/>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="2" t="n"/>
     </row>
@@ -969,45 +995,47 @@
         <v>50</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>43900</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>1</v>
+      <c r="J13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
       </c>
       <c r="L13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="n">
         <v>1858</v>
       </c>
-      <c r="M13" s="2" t="n"/>
       <c r="N13" s="2" t="n"/>
       <c r="O13" s="2" t="n"/>
     </row>
@@ -1016,45 +1044,47 @@
         <v>51</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>43901</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="n">
+      <c r="J14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L14" s="2" t="n">
+      <c r="M14" s="2" t="n">
         <v>1972</v>
       </c>
-      <c r="M14" s="2" t="n"/>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="2" t="n"/>
     </row>
@@ -1063,45 +1093,47 @@
         <v>52</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
         <v>43902</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="n">
+      <c r="J15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="M15" s="2" t="n">
         <v>2090</v>
       </c>
-      <c r="M15" s="2" t="n"/>
       <c r="N15" s="2" t="n"/>
       <c r="O15" s="2" t="n"/>
     </row>
@@ -1110,45 +1142,47 @@
         <v>53</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
         <v>43903</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="n">
+      <c r="J16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="L16" s="2" t="n">
+      <c r="M16" s="2" t="n">
         <v>2214</v>
       </c>
-      <c r="M16" s="2" t="n"/>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="2" t="n"/>
     </row>
@@ -1157,45 +1191,47 @@
         <v>54</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n">
         <v>43904</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G17" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="n">
+      <c r="J17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="L17" s="2" t="n">
+      <c r="M17" s="2" t="n">
         <v>2345</v>
       </c>
-      <c r="M17" s="2" t="n"/>
       <c r="N17" s="2" t="n"/>
       <c r="O17" s="2" t="n"/>
     </row>
@@ -1204,45 +1240,47 @@
         <v>56</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
         <v>43906</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="n">
+      <c r="J18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="M18" s="2" t="n">
         <v>2591</v>
       </c>
-      <c r="M18" s="2" t="n"/>
       <c r="N18" s="2" t="n"/>
       <c r="O18" s="2" t="n"/>
     </row>
@@ -1251,45 +1289,47 @@
         <v>57</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
         <v>43907</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G19" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="n">
+      <c r="J19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="L19" s="2" t="n">
+      <c r="M19" s="2" t="n">
         <v>2751</v>
       </c>
-      <c r="M19" s="2" t="n"/>
       <c r="N19" s="2" t="n"/>
       <c r="O19" s="2" t="n"/>
     </row>
@@ -1298,45 +1338,47 @@
         <v>58</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n">
         <v>43908</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="n">
+      <c r="J20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="L20" s="2" t="n">
+      <c r="M20" s="2" t="n">
         <v>2912</v>
       </c>
-      <c r="M20" s="2" t="n"/>
       <c r="N20" s="2" t="n"/>
       <c r="O20" s="2" t="n"/>
     </row>
@@ -1345,45 +1387,47 @@
         <v>59</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n">
         <v>43909</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="H21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>0</v>
+      <c r="J21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
       </c>
       <c r="L21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="n">
         <v>3073</v>
       </c>
-      <c r="M21" s="2" t="n"/>
       <c r="N21" s="2" t="n"/>
       <c r="O21" s="2" t="n"/>
     </row>
@@ -1392,45 +1436,47 @@
         <v>60</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n">
         <v>43910</v>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="H22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>0</v>
+      <c r="J22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
       </c>
       <c r="L22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="n">
         <v>3246</v>
       </c>
-      <c r="M22" s="2" t="n"/>
       <c r="N22" s="2" t="n"/>
       <c r="O22" s="2" t="n"/>
     </row>
@@ -1439,45 +1485,47 @@
         <v>61</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n">
         <v>43911</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="G23" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>1</v>
+      <c r="J23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
       </c>
       <c r="L23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2" t="n">
         <v>3429</v>
       </c>
-      <c r="M23" s="2" t="n"/>
       <c r="N23" s="2" t="n"/>
       <c r="O23" s="2" t="n"/>
     </row>
@@ -1486,45 +1534,47 @@
         <v>62</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="n">
         <v>43912</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="H24" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H24" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>0</v>
+      <c r="J24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
       </c>
       <c r="L24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="n">
         <v>3610</v>
       </c>
-      <c r="M24" s="2" t="n"/>
       <c r="N24" s="2" t="n"/>
       <c r="O24" s="2" t="n"/>
     </row>
@@ -1533,45 +1583,47 @@
         <v>63</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n">
         <v>43913</v>
       </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="G25" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="n">
-        <v>1</v>
+      <c r="J25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
       </c>
       <c r="L25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2" t="n">
         <v>3802</v>
       </c>
-      <c r="M25" s="2" t="n"/>
       <c r="N25" s="2" t="n"/>
       <c r="O25" s="2" t="n"/>
     </row>
@@ -1580,45 +1632,47 @@
         <v>64</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="n">
         <v>43914</v>
       </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="G26" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="n">
+      <c r="J26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L26" s="2" t="n">
+      <c r="M26" s="2" t="n">
         <v>3999</v>
       </c>
-      <c r="M26" s="2" t="n"/>
       <c r="N26" s="2" t="n"/>
       <c r="O26" s="2" t="n"/>
     </row>
@@ -1627,45 +1681,47 @@
         <v>65</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="n">
         <v>43915</v>
       </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="H27" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>Imported cases only</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="n">
-        <v>0</v>
+      <c r="J27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>Imported cases only</t>
+        </is>
       </c>
       <c r="L27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="n">
         <v>4195</v>
       </c>
-      <c r="M27" s="2" t="n"/>
       <c r="N27" s="2" t="n"/>
       <c r="O27" s="2" t="n"/>
     </row>
@@ -1674,45 +1730,47 @@
         <v>66</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="n">
         <v>43916</v>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="H28" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H28" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J28" s="2" t="inlineStr">
+      <c r="J28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K28" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="n">
         <v>4393</v>
       </c>
-      <c r="M28" s="2" t="n"/>
       <c r="N28" s="2" t="n"/>
       <c r="O28" s="2" t="n"/>
     </row>
@@ -1721,45 +1779,47 @@
         <v>67</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="n">
         <v>43917</v>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="H29" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="H29" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K29" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="n">
         <v>4587</v>
       </c>
-      <c r="M29" s="2" t="n"/>
       <c r="N29" s="2" t="n"/>
       <c r="O29" s="2" t="n"/>
     </row>
@@ -1768,45 +1828,47 @@
         <v>68</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="n">
         <v>43918</v>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="G30" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K30" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="L30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2" t="n">
         <v>4785</v>
       </c>
-      <c r="M30" s="2" t="n"/>
       <c r="N30" s="2" t="n"/>
       <c r="O30" s="2" t="n"/>
     </row>
@@ -1815,45 +1877,47 @@
         <v>69</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="n">
         <v>43919</v>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="G31" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K31" s="2" t="n">
+      <c r="L31" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L31" s="2" t="n">
+      <c r="M31" s="2" t="n">
         <v>4989</v>
       </c>
-      <c r="M31" s="2" t="n"/>
       <c r="N31" s="2" t="n"/>
       <c r="O31" s="2" t="n"/>
     </row>
@@ -1862,45 +1926,47 @@
         <v>70</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="n">
         <v>43920</v>
       </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="G32" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K32" s="2" t="n">
+      <c r="L32" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="L32" s="2" t="n">
+      <c r="M32" s="2" t="n">
         <v>5193</v>
       </c>
-      <c r="M32" s="2" t="n"/>
       <c r="N32" s="2" t="n"/>
       <c r="O32" s="2" t="n"/>
     </row>
@@ -1909,45 +1975,47 @@
         <v>71</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Africa                   </t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="n">
         <v>43921</v>
       </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="H33" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="I33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K33" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2" t="n">
         <v>5393</v>
       </c>
-      <c r="M33" s="2" t="n"/>
       <c r="N33" s="2" t="n"/>
       <c r="O33" s="2" t="n"/>
     </row>

--- a/Datasets/SeperateCountryFiles/Nigeria.xlsx
+++ b/Datasets/SeperateCountryFiles/Nigeria.xlsx
@@ -364,19 +364,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="8" max="8"/>
     <col width="27" customWidth="1" min="8" max="8"/>
     <col width="27" customWidth="1" min="9" max="9"/>
+    <col width="27" customWidth="1" min="9" max="9"/>
+    <col width="27" customWidth="1" min="10" max="10"/>
     <col width="27" customWidth="1" min="10" max="10"/>
     <col width="27" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="12" max="12"/>
     <col width="27" customWidth="1" min="12" max="12"/>
     <col width="27" customWidth="1" min="13" max="13"/>
+    <col width="27" customWidth="1" min="13" max="13"/>
     <col width="27" customWidth="1" min="14" max="14"/>
+    <col width="27" customWidth="1" min="14" max="14"/>
+    <col width="27" customWidth="1" min="15" max="15"/>
     <col width="27" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
